--- a/tables/crosstab/crosstab_gender/crosstab_time_gender/Gender VS visited_chisq.xlsx
+++ b/tables/crosstab/crosstab_gender/crosstab_time_gender/Gender VS visited_chisq.xlsx
@@ -408,7 +408,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>3.1286</v>
+        <v>2.6164</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -419,7 +419,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.5365</v>
+        <v>0.6239</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,7 +430,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.0878</v>
+        <v>0.0809</v>
       </c>
     </row>
   </sheetData>
